--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_98.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_98.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Holiday Inn New Orleans Airport North</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Kenner</t>
   </si>
   <si>
@@ -58,78 +136,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -500,34 +506,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>64956</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70062</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>12</v>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -552,76 +577,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="W1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="X1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E2" t="n">
+        <v>70062</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_98.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_98.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,790 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r619653603-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40247</t>
+  </si>
+  <si>
+    <t>11717411</t>
+  </si>
+  <si>
+    <t>619653603</t>
+  </si>
+  <si>
+    <t>09/26/2018</t>
+  </si>
+  <si>
+    <t>Nice beds and very clean</t>
+  </si>
+  <si>
+    <t>Stayed overnight before an early flight.   They have a rate that will let u park for 2 weeks.  Hotel new, clean, and well run.   Bed very comfortable.  Fir a quick airport stay, it could not be better. The hotel seems very new.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r605047461-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>605047461</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Staff problem</t>
+  </si>
+  <si>
+    <t>I thought breakfast was included when I booked. I was informed not at rate I had booked. I allowed myselt to be upsold $15 for two breakfast, even after having explained to me that the "breakfast comes standard" on banner by the elevator only came 'standard" when booking the rate named "STANDARD RATE". The more I thought about this after checking out, the more I realized I was cheated. I filled out the IHG evaluation, asking to be contacted - I wasn't. Two weeks after the stay, I received a thank you email from the hotel. I replied, again asking to be contacted - again, I wasn't.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r597581638-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>597581638</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice property </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice new property. Rooms and lobby are well styled. Rooms are clean and comfortable. Bed and sleep quality pretty good. Between the airport and freeway it can get noisy. Front desk staff pleasant, but not real professional. Bar restaurant is okay, but lacks personality. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r596457917-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>596457917</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly staff. Good rate. Great bed and quiet even though it’s close to airport.   Nice pool as well. Only complaint is that staff was all hanging out at front desk. As a former IHG management employee I saw some room for improvement in cleaning the outside areas. There was a brick about to fall off in pool area that needs attention as well. Overall though it was a great place to stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r585786595-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>585786595</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>poor housekeeping and service</t>
+  </si>
+  <si>
+    <t>While the hotel is new, housekeeping is extremely poor. We walked into our room to find a full set of fingernail (or toenail!) clippings on the desk. When we reported that, we were offered points — how about a vacuum cleaner!!!  Paper, plastic and crumbs remained in the hallways for the 2 nights we stayed, never vacuumed. Our room for 3 people only received two sets of towels.  Our shuttle driver was just that — a driver, with no offer to assist in loading luggage. But when we unloaded everything at the airport, she was ready immediately for her tip — no way!  This is a sure sign of a poorly trained and poorly managed staff and property.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>While the hotel is new, housekeeping is extremely poor. We walked into our room to find a full set of fingernail (or toenail!) clippings on the desk. When we reported that, we were offered points — how about a vacuum cleaner!!!  Paper, plastic and crumbs remained in the hallways for the 2 nights we stayed, never vacuumed. Our room for 3 people only received two sets of towels.  Our shuttle driver was just that — a driver, with no offer to assist in loading luggage. But when we unloaded everything at the airport, she was ready immediately for her tip — no way!  This is a sure sign of a poorly trained and poorly managed staff and property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r581560528-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>581560528</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>The hotel is great if you’re leaving from the airport in New Orleans. It’s a new hotel and very clean and accommodating. There is a restaurant in the hotel and a free airport shuttle.  If you are in your own car you can leave it parked at the hotel. I’m not sure if there is a charge because we didn’t leave our car.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r575300228-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575300228</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Awesome staff</t>
+  </si>
+  <si>
+    <t>Our flight was cancelled late Saturday night, I immediately called to make a reservation and Dayna answered the phone. She was sweet, professional and really concerned she could meet my needs. I was not only able to reserve a room for myself but she also took a few other people that were stranded with my 1 phone call. She said she would make sure that the shuttle would stay if we needed then to a little longer since we were still waiting to reschedule our flights and get bags. She told me to call her back when we got our bags. When we got to the hotel she was having to handle a large family that had booked online but their reservation got cancelled. They were traveling with a small child and very ready to go rest. The family also was on the cancelled flight. She never hesitated and accomadated them. My check in as well as my new stranger passenger friends was quick and easy. The phones were ringing non stop with stranded passengers. She handled it like a seasoned pro. We found out it was her first solo night. You can't teach that kind of customer care. Corey the shuttle driver was also amazing and concerned with if we needed to eat. He was so sympathetic.  So many times customers are greeted by employees that do not care about their job this was not the case with the...Our flight was cancelled late Saturday night, I immediately called to make a reservation and Dayna answered the phone. She was sweet, professional and really concerned she could meet my needs. I was not only able to reserve a room for myself but she also took a few other people that were stranded with my 1 phone call. She said she would make sure that the shuttle would stay if we needed then to a little longer since we were still waiting to reschedule our flights and get bags. She told me to call her back when we got our bags. When we got to the hotel she was having to handle a large family that had booked online but their reservation got cancelled. They were traveling with a small child and very ready to go rest. The family also was on the cancelled flight. She never hesitated and accomadated them. My check in as well as my new stranger passenger friends was quick and easy. The phones were ringing non stop with stranded passengers. She handled it like a seasoned pro. We found out it was her first solo night. You can't teach that kind of customer care. Corey the shuttle driver was also amazing and concerned with if we needed to eat. He was so sympathetic.  So many times customers are greeted by employees that do not care about their job this was not the case with the Staff on Saturday night. I ran to the bar 15 minutes to close hoping to get something to eat, he said no problem and apologized because kitchen was running slow. I was just elated he didn't hesitate considering they closed in less than 15 minutes. I stay in a dozen hotels a year easy and never have felt I needed to applaud the staff for doing their job. Thank you for making a frustrating situation an extra vacation day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our flight was cancelled late Saturday night, I immediately called to make a reservation and Dayna answered the phone. She was sweet, professional and really concerned she could meet my needs. I was not only able to reserve a room for myself but she also took a few other people that were stranded with my 1 phone call. She said she would make sure that the shuttle would stay if we needed then to a little longer since we were still waiting to reschedule our flights and get bags. She told me to call her back when we got our bags. When we got to the hotel she was having to handle a large family that had booked online but their reservation got cancelled. They were traveling with a small child and very ready to go rest. The family also was on the cancelled flight. She never hesitated and accomadated them. My check in as well as my new stranger passenger friends was quick and easy. The phones were ringing non stop with stranded passengers. She handled it like a seasoned pro. We found out it was her first solo night. You can't teach that kind of customer care. Corey the shuttle driver was also amazing and concerned with if we needed to eat. He was so sympathetic.  So many times customers are greeted by employees that do not care about their job this was not the case with the...Our flight was cancelled late Saturday night, I immediately called to make a reservation and Dayna answered the phone. She was sweet, professional and really concerned she could meet my needs. I was not only able to reserve a room for myself but she also took a few other people that were stranded with my 1 phone call. She said she would make sure that the shuttle would stay if we needed then to a little longer since we were still waiting to reschedule our flights and get bags. She told me to call her back when we got our bags. When we got to the hotel she was having to handle a large family that had booked online but their reservation got cancelled. They were traveling with a small child and very ready to go rest. The family also was on the cancelled flight. She never hesitated and accomadated them. My check in as well as my new stranger passenger friends was quick and easy. The phones were ringing non stop with stranded passengers. She handled it like a seasoned pro. We found out it was her first solo night. You can't teach that kind of customer care. Corey the shuttle driver was also amazing and concerned with if we needed to eat. He was so sympathetic.  So many times customers are greeted by employees that do not care about their job this was not the case with the Staff on Saturday night. I ran to the bar 15 minutes to close hoping to get something to eat, he said no problem and apologized because kitchen was running slow. I was just elated he didn't hesitate considering they closed in less than 15 minutes. I stay in a dozen hotels a year easy and never have felt I needed to applaud the staff for doing their job. Thank you for making a frustrating situation an extra vacation day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r574070327-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574070327</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Poorly constructed and rude security staff</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel as a result of a canceled flight with around 100 high school students. While the front desk staff was perfectly pleasant, friendly and helpful, the rest of the experience was disappointing. First, the walls were extremely thin, meaning that even simple conversation within rooms could be heard in the hallways. As such, we got noise complaints while having conversations at a regular volume. What made the situation worse was the hotel's security guard, who was exceedingly rude to both the students and the chaperones in telling us to quiet down, at one point threatening to call the police on the students. She ended up yelling at the students repeatedly to stop loitering. This was a completely inappropriate response that was not called for.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn New Orleans Airport North, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel as a result of a canceled flight with around 100 high school students. While the front desk staff was perfectly pleasant, friendly and helpful, the rest of the experience was disappointing. First, the walls were extremely thin, meaning that even simple conversation within rooms could be heard in the hallways. As such, we got noise complaints while having conversations at a regular volume. What made the situation worse was the hotel's security guard, who was exceedingly rude to both the students and the chaperones in telling us to quiet down, at one point threatening to call the police on the students. She ended up yelling at the students repeatedly to stop loitering. This was a completely inappropriate response that was not called for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r570085837-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>570085837</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Serious Unresolved Construction Issues Plague Poorly Managed Property</t>
+  </si>
+  <si>
+    <t>Needed an airport-adjacent hotel for a few days in New Orleans.  This Holiday Inn is less than a year old and from the outside looked to be a nice property.
+However during my stay it became clear that this hotel wasn't properly inspected by the owners prior to taking possession from the builders with numerous building defects and design problems that should have been long-ago rectified.
+In my room I had a heater/AC system that didn't work.  It was clear to me that the thermostat in the room was either defective or not connected to the system.  After my complaint it was in fact found to be unconnected - how does this continue for months after the opening of the hotel?  
+Hot water was non-existent during busy morning and evening periods - and this with the hotel less than 50% occupied.  
+Shower door has large grab bars that aren't tightened properly and will be a serious problem if not properly installed using Loctiite to secure them. 
+Cheap light fixtures with USB charge ports - one didn't work at all, one lamp was missing a locking bolt and shade fell off with a touch.  Electric outlets had gaps between safety plates and wall, electrical cables from desk and nightstand just strung around without any thought for safety.  The card showing TV channels was in such small type that I doubt even a child could read it.  Television pictures pretty lousy for...Needed an airport-adjacent hotel for a few days in New Orleans.  This Holiday Inn is less than a year old and from the outside looked to be a nice property.However during my stay it became clear that this hotel wasn't properly inspected by the owners prior to taking possession from the builders with numerous building defects and design problems that should have been long-ago rectified.In my room I had a heater/AC system that didn't work.  It was clear to me that the thermostat in the room was either defective or not connected to the system.  After my complaint it was in fact found to be unconnected - how does this continue for months after the opening of the hotel?  Hot water was non-existent during busy morning and evening periods - and this with the hotel less than 50% occupied.  Shower door has large grab bars that aren't tightened properly and will be a serious problem if not properly installed using Loctiite to secure them. Cheap light fixtures with USB charge ports - one didn't work at all, one lamp was missing a locking bolt and shade fell off with a touch.  Electric outlets had gaps between safety plates and wall, electrical cables from desk and nightstand just strung around without any thought for safety.  The card showing TV channels was in such small type that I doubt even a child could read it.  Television pictures pretty lousy for a new installation.  Restaurant breakfast menu was horribly overpriced, restaurant empty as a result I guess. All of these issues were reported to a front-desk manager named Logan who seemed overwhelmed with the complaints.  Did nothing.  An email to hotel owner Expo Hospitality got a sympathetic response, but I frankly don't think they understand what a pig-in-a-poke they've built.  They threw some IHG member points at me, typical.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn New Orleans Airport North, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Needed an airport-adjacent hotel for a few days in New Orleans.  This Holiday Inn is less than a year old and from the outside looked to be a nice property.
+However during my stay it became clear that this hotel wasn't properly inspected by the owners prior to taking possession from the builders with numerous building defects and design problems that should have been long-ago rectified.
+In my room I had a heater/AC system that didn't work.  It was clear to me that the thermostat in the room was either defective or not connected to the system.  After my complaint it was in fact found to be unconnected - how does this continue for months after the opening of the hotel?  
+Hot water was non-existent during busy morning and evening periods - and this with the hotel less than 50% occupied.  
+Shower door has large grab bars that aren't tightened properly and will be a serious problem if not properly installed using Loctiite to secure them. 
+Cheap light fixtures with USB charge ports - one didn't work at all, one lamp was missing a locking bolt and shade fell off with a touch.  Electric outlets had gaps between safety plates and wall, electrical cables from desk and nightstand just strung around without any thought for safety.  The card showing TV channels was in such small type that I doubt even a child could read it.  Television pictures pretty lousy for...Needed an airport-adjacent hotel for a few days in New Orleans.  This Holiday Inn is less than a year old and from the outside looked to be a nice property.However during my stay it became clear that this hotel wasn't properly inspected by the owners prior to taking possession from the builders with numerous building defects and design problems that should have been long-ago rectified.In my room I had a heater/AC system that didn't work.  It was clear to me that the thermostat in the room was either defective or not connected to the system.  After my complaint it was in fact found to be unconnected - how does this continue for months after the opening of the hotel?  Hot water was non-existent during busy morning and evening periods - and this with the hotel less than 50% occupied.  Shower door has large grab bars that aren't tightened properly and will be a serious problem if not properly installed using Loctiite to secure them. Cheap light fixtures with USB charge ports - one didn't work at all, one lamp was missing a locking bolt and shade fell off with a touch.  Electric outlets had gaps between safety plates and wall, electrical cables from desk and nightstand just strung around without any thought for safety.  The card showing TV channels was in such small type that I doubt even a child could read it.  Television pictures pretty lousy for a new installation.  Restaurant breakfast menu was horribly overpriced, restaurant empty as a result I guess. All of these issues were reported to a front-desk manager named Logan who seemed overwhelmed with the complaints.  Did nothing.  An email to hotel owner Expo Hospitality got a sympathetic response, but I frankly don't think they understand what a pig-in-a-poke they've built.  They threw some IHG member points at me, typical.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r569201372-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>569201372</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Pretty new and very clean</t>
+  </si>
+  <si>
+    <t>The Holiday Inn New Orleans Airport North is very close to the airport. The staff are friendly and the building is fairly new. The rooms are spacious and the beds have recently been upgraded. The complimentary WiFi is fast and you can purchase beverages and snacks in the lobby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r567983746-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>567983746</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t stay on first floor </t>
+  </si>
+  <si>
+    <t>Facilities were clean. Staff was nice and friendly. The hotel is ideally located near the airport and with access to Greater New Orleans. The beds are very comfortable. The only problem was the level of noise that disturbed our sleep. First of all we could here water running through the pipes. Second, our room was near the lobby and we could hear a great deal of noise from people moving through there and down the hall. If you stay in this hotel, request to be away from the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn New Orleans Airport North, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Facilities were clean. Staff was nice and friendly. The hotel is ideally located near the airport and with access to Greater New Orleans. The beds are very comfortable. The only problem was the level of noise that disturbed our sleep. First of all we could here water running through the pipes. Second, our room was near the lobby and we could hear a great deal of noise from people moving through there and down the hall. If you stay in this hotel, request to be away from the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r566930919-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>566930919</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>This is a typical holiday inn.  It is fairly nice and the rooms are very spacious. Check in was smooth. There is no continental breakfast or coffee available which is a first at a Holiday Inn for me. We made it work though.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r566439147-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>566439147</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very Clean, Comfortable and Consistent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a road warrior I always stay at the IHG Holiday Inn properties across this great country.   This property is new and about 8 months old.  It was very clean, very comfortable and consistent with the expectations for a corporate national chain.   This one is better than the average and management has done a good job on this one to give a traveler a good night rest and comfort.  Nice job.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r564360132-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>564360132</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Great staff and great stay</t>
+  </si>
+  <si>
+    <t>I stayed at the Holiday Inn/New Orleans Airport North near the end of January.  Despite the cold weather outside, the room was comfortable throughout my stay.The staff was friendly and helpful and cheerfully supplied me with a couple of items that I needed for the room.The room itself was large and sparkling clean and the bed was as comfortable as anyone could hope for.I did not get a chance to dine in the hotel restaurant, but based on the aroma from the kitchen...that is something I would like to try on a future trip.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r563376460-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>563376460</t>
+  </si>
+  <si>
+    <t>02/28/2018</t>
+  </si>
+  <si>
+    <t>Beware of Mold and Cleanness</t>
+  </si>
+  <si>
+    <t>Holiday Inn New Orleans Airport North is only seven months old and they have mold and not keeping the rooms clean. The grounds not maintain for seven month old Holiday Inn Express property.See Photos We were not aware we of having meal pass when booked, so for two bagels and coffee $27.00!Also we chose thinking close to catch our cruise ship and downtown it is not, Yes you may pay more , but you save on UBER/Taxi cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn New Orleans Airport North, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Holiday Inn New Orleans Airport North is only seven months old and they have mold and not keeping the rooms clean. The grounds not maintain for seven month old Holiday Inn Express property.See Photos We were not aware we of having meal pass when booked, so for two bagels and coffee $27.00!Also we chose thinking close to catch our cruise ship and downtown it is not, Yes you may pay more , but you save on UBER/Taxi cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r563015710-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>563015710</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Shiny, nice new convenient place. Paper thin walls weren't that great though.</t>
+  </si>
+  <si>
+    <t>Not really sure whose idea it was to make paper thin walls here. Wildly thin walls or the guy next to me was crazy loud. Luckily he wasn't on his cell phone too much. I like the property and location. I might return if I can get an end of the hall room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Not really sure whose idea it was to make paper thin walls here. Wildly thin walls or the guy next to me was crazy loud. Luckily he wasn't on his cell phone too much. I like the property and location. I might return if I can get an end of the hall room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r560340125-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>560340125</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Quick Stay for Early Flight</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before an early flight from New Orleans Airport.    The rooms was very clean, quiet and the bed was very comfortable.    The room also had a counter size refrigerator and microwave.     Our room faced the parking lot/airport and we had no issues with noise.   The shuttle drivers were excellent - very friendly and the service was timely.    We chose the rate which included parking for up to ten days - the parking lot is well lit and secure.    We will definitely stay at this location again when flying out of MSY - the hotel is newer than others in the area, good service, easy shuttle service and an overall favorable experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before an early flight from New Orleans Airport.    The rooms was very clean, quiet and the bed was very comfortable.    The room also had a counter size refrigerator and microwave.     Our room faced the parking lot/airport and we had no issues with noise.   The shuttle drivers were excellent - very friendly and the service was timely.    We chose the rate which included parking for up to ten days - the parking lot is well lit and secure.    We will definitely stay at this location again when flying out of MSY - the hotel is newer than others in the area, good service, easy shuttle service and an overall favorable experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r551318670-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>551318670</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Won't Return Here</t>
+  </si>
+  <si>
+    <t>While the hotel is new and clean and a quick drive into New Orleans, I wouldn't stay here again. I booked through Priceline (therefore paying in advance). I left the hotel believing everything was fine, but then after routinely checking my credit card balance, I saw a charge. Having paid for everything in cash at the restaurant and at the store, I was shocked. Also, I didn't receive a receipt or anything under the door with a paper receipt so again, I assumed everything was fine. When I called the hotel, the associate wasn't concerned. She said Priceline hadn't paid the full total so they had put the balance on my card. Unacceptable. If the hotel had a problem with Priceline, they should have taken it up with the company and not sneakily added a charge to my credit account after I left the hotel. I won't return here because I care about my money. FYI - The charge was removed after I called Priceline (something the hotel should have done before billing me).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>While the hotel is new and clean and a quick drive into New Orleans, I wouldn't stay here again. I booked through Priceline (therefore paying in advance). I left the hotel believing everything was fine, but then after routinely checking my credit card balance, I saw a charge. Having paid for everything in cash at the restaurant and at the store, I was shocked. Also, I didn't receive a receipt or anything under the door with a paper receipt so again, I assumed everything was fine. When I called the hotel, the associate wasn't concerned. She said Priceline hadn't paid the full total so they had put the balance on my card. Unacceptable. If the hotel had a problem with Priceline, they should have taken it up with the company and not sneakily added a charge to my credit account after I left the hotel. I won't return here because I care about my money. FYI - The charge was removed after I called Priceline (something the hotel should have done before billing me).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r550316990-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>550316990</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Nicest Shuttle Drivers</t>
+  </si>
+  <si>
+    <t>I was in town on business and decided to stay here due to the proximity of my appointments.  First,  I have to honestly say that this hotel has two of the nicest shuttle drivers I have encountered!  They genuinely care about satisfaction with the hotel.  All of the front desk staff were also nice and attentive. Tip: I was in room 430, which faced the interstate.  If you are sensitive to noise when you sleep,  I recommend you NOT stay in a room facing the interstate.   You will hear the noise from the vehicles traveling on the interstate.   It didn't bother me but I'm just giving you a heads up.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>I was in town on business and decided to stay here due to the proximity of my appointments.  First,  I have to honestly say that this hotel has two of the nicest shuttle drivers I have encountered!  They genuinely care about satisfaction with the hotel.  All of the front desk staff were also nice and attentive. Tip: I was in room 430, which faced the interstate.  If you are sensitive to noise when you sleep,  I recommend you NOT stay in a room facing the interstate.   You will hear the noise from the vehicles traveling on the interstate.   It didn't bother me but I'm just giving you a heads up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r548101327-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>548101327</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Recommended best hands down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean quiet beds are soooo comfy I wish I could take it homeWe stayed two nights the aircraft wasn't bad at all what ppl made it seem not a problem at allThe review about the prostitutes was a lie it's a brand new hotelBeautiful quiet The workers were polite and helpful </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r546630974-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>546630974</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Terrible place to stay</t>
+  </si>
+  <si>
+    <t>I booked this hotel by knowing it was a newly built place. It was a disaster. Noise from nearby I-10 and aircraft was so loude, I cantt sleep whole night. Staff has no knowledge of any thing. Someone knock on my door at late night and when I open my door, it was surprise. A young lady was selling herself in the hotel itself. I called front desk and complain  but no help. Look like a new hotel full of prostitution business.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r540409685-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>540409685</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Excellent service in new hotel</t>
+  </si>
+  <si>
+    <t>We were quite impressed with our stay at this hotel.  Kevin really put out the welcome mat for us!  He was very helpful in suggesting a place to grab dinner and answering any local questions that we had.  Cory picked us up at the airport and was also a warm welcoming host.  The airport shuttle is a great convenience!The rooms are well laid out with power and USB chargers everywhere!  Also mirrors positioned for nearsighted guests like me!  We did have 2 slight glitches.  the printer in the lobby did not work for boarding pass printing but Kevin came to the rescue and offered to print ours at the desk where he was working. One other, we left a wakeup call request that never came.  Luckily we woke up in time as we had an early flight the next morning.  Overall a very good experience that we would repeat if needing an airport hotel in New Orleans!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were quite impressed with our stay at this hotel.  Kevin really put out the welcome mat for us!  He was very helpful in suggesting a place to grab dinner and answering any local questions that we had.  Cory picked us up at the airport and was also a warm welcoming host.  The airport shuttle is a great convenience!The rooms are well laid out with power and USB chargers everywhere!  Also mirrors positioned for nearsighted guests like me!  We did have 2 slight glitches.  the printer in the lobby did not work for boarding pass printing but Kevin came to the rescue and offered to print ours at the desk where he was working. One other, we left a wakeup call request that never came.  Luckily we woke up in time as we had an early flight the next morning.  Overall a very good experience that we would repeat if needing an airport hotel in New Orleans!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r540191892-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>540191892</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>SERIOUSLY UNDERSTAFFED</t>
+  </si>
+  <si>
+    <t>CONS:SHAME ON THE OWNER! The sweetest and most attentive, overworked staff you could lay your eyes on worked harder than slaves in a third-world country. The managers were acting as house-servants, making our bed when the maids failed (overworked as well). When three school buses full of high-school varsity teams arrived, no one had the time to advise the kitchen. The one poor guy running the food service said he worked the entire month of September from 5 am to 11 pm - ALONE because management wouldn’t hire more staff.PROS:AWESOME king-size mattressGREAT breakfast served on-timeNice “suite-type” eating area in roomLarge showerGreat desk and work spaceLarge TV swivels to accommodate Great closetMicro and fridge were cleanPantry for purchase in lobby MoreShow less</t>
+  </si>
+  <si>
+    <t>CONS:SHAME ON THE OWNER! The sweetest and most attentive, overworked staff you could lay your eyes on worked harder than slaves in a third-world country. The managers were acting as house-servants, making our bed when the maids failed (overworked as well). When three school buses full of high-school varsity teams arrived, no one had the time to advise the kitchen. The one poor guy running the food service said he worked the entire month of September from 5 am to 11 pm - ALONE because management wouldn’t hire more staff.PROS:AWESOME king-size mattressGREAT breakfast served on-timeNice “suite-type” eating area in roomLarge showerGreat desk and work spaceLarge TV swivels to accommodate Great closetMicro and fridge were cleanPantry for purchase in lobby More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r539777112-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>539777112</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Great First Stay</t>
+  </si>
+  <si>
+    <t>Nice fairly new hotel. Great people at the front desk, especially Dori. Always very friendly and helpful. Clean and comfortable rooms, clean and spacious fitness room. Nice location away from congestion, yet close to stores and restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r539426296-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>539426296</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>They treated me first class</t>
+  </si>
+  <si>
+    <t>I'd had a cancelled flight and was having to cancel my room, but was arriving at 6am the following day instead of 6pm as planned. Stephan (sp?) said he'd hold the room for me and give me a late checkout if I desired. What a lifesaver! They had the shuttle pick me up and my room was ready to check in. I was able to get much needed sleep and rest before starting a 5 day trade show, made all the difference in the world. I greatly appreciate the team accommodating my schedule.I was able to get several hours of sleep in a nice and comfy room, and it was very quiet as I slept til about 11am. Then, was able to quickly catch up on emails and head to the convention center. Their attitude was very welcomed after a much longer day of travel than intended the day before. The wifi worked great for me. The property seems pretty new. The shuttle arrived quickly and it's an easy drive to the property. Should I need a hotel near the airport in New Orleans in the future I won't hesitate to book this Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I'd had a cancelled flight and was having to cancel my room, but was arriving at 6am the following day instead of 6pm as planned. Stephan (sp?) said he'd hold the room for me and give me a late checkout if I desired. What a lifesaver! They had the shuttle pick me up and my room was ready to check in. I was able to get much needed sleep and rest before starting a 5 day trade show, made all the difference in the world. I greatly appreciate the team accommodating my schedule.I was able to get several hours of sleep in a nice and comfy room, and it was very quiet as I slept til about 11am. Then, was able to quickly catch up on emails and head to the convention center. Their attitude was very welcomed after a much longer day of travel than intended the day before. The wifi worked great for me. The property seems pretty new. The shuttle arrived quickly and it's an easy drive to the property. Should I need a hotel near the airport in New Orleans in the future I won't hesitate to book this Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r538178807-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>538178807</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent Experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for business and selected this location for proximity to the airport.  Took about 7 minutes to get there yet never heard an airplane overhead.  Very quite.  This is a fairly new property so everything looks clean because of fresh paint but if you look closer you realize it really IS clean.  The bed is exceptional and very comfortable.  I will definitely stay here on future trips.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r536415942-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>536415942</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and new</t>
+  </si>
+  <si>
+    <t>This new Holiday Inn is in great condition as expected for a new property.  It was clean, everything worked well, and they DO provide local and airport shuttle service, although I couldn't find any mention of a shuttle on the website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r536118574-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>536118574</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impossible to sleep due to traffic noise all night and aircraft noise in the early morning. I would have imagined that a new building such as this would have better sound-proofing. No wi-fi signal in my room, and no bath tub, shower only. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r534873061-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>534873061</t>
+  </si>
+  <si>
+    <t>10/21/2017</t>
+  </si>
+  <si>
+    <t>Brand new facility - Excellent Rooms</t>
+  </si>
+  <si>
+    <t>Best beds and pillows ever!Large screen TV and full cable selection.Microwave and small frig.Only 5 min drive from airportAverage drive to NOLA's CBD - 45minMust book in advance - seems fully booked all the time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r533534391-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>533534391</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Clean, quiet and close to airport</t>
+  </si>
+  <si>
+    <t>Our one night stay was to catch an early flight the next morning. We were pleasantly surprised by how clean and quiet this hotel was. Very convenient access from interstate and to airport. Kevin checked us in quickly and efficiently, and informed us of places to eat in the neighborhood. The beds were new and comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r531100102-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>531100102</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Very nice new hotel far from food</t>
+  </si>
+  <si>
+    <t>We stayed here the night before flying home from New Orleans area. This hotel is very close to the airport. We had to drive around to the other side, but it’s no more than ten minutes from the terminal.On arrival, Kevin greeted us warmly and in no time we went up to our room. Oops, the entry and bathroom floors were very sticky. I went down to the desk and told Charmaine, and she said someone would be right on it. Then after just a few minutes there was a knock at the door. It was Charmaine with a mop and bucket! She cheerfully mopped the floor herself. Now that’s service!We were not offered a free breakfast, but there is food service on the main floor. Beware, there closest restaurants or fast food are at least a couple miles away.Our second floor room was nice, but large HVAC equipment was just outside our window. Didn’t bother us, but we aware. Also, our room faced Interstate 20 but we didn’t notice the noise. So ask for a front facing room if the traffic noise is a concern. The front facing rooms look out over the very ample free parking in front.And, perhaps most important, there were lots of outlets to recharge all our devices.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We stayed here the night before flying home from New Orleans area. This hotel is very close to the airport. We had to drive around to the other side, but it’s no more than ten minutes from the terminal.On arrival, Kevin greeted us warmly and in no time we went up to our room. Oops, the entry and bathroom floors were very sticky. I went down to the desk and told Charmaine, and she said someone would be right on it. Then after just a few minutes there was a knock at the door. It was Charmaine with a mop and bucket! She cheerfully mopped the floor herself. Now that’s service!We were not offered a free breakfast, but there is food service on the main floor. Beware, there closest restaurants or fast food are at least a couple miles away.Our second floor room was nice, but large HVAC equipment was just outside our window. Didn’t bother us, but we aware. Also, our room faced Interstate 20 but we didn’t notice the noise. So ask for a front facing room if the traffic noise is a concern. The front facing rooms look out over the very ample free parking in front.And, perhaps most important, there were lots of outlets to recharge all our devices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r529655970-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>529655970</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Nice and extremely helpful service at a new hotel!</t>
+  </si>
+  <si>
+    <t>Arrived to a very large and bright new hotel. My mother being in a wheelchair, we booked an accessible room, which was very large and well equipped for a wheelchair. The front desk staff were extremely helpful upon our arrival to make sure we were given the right room for my mother's needs. The hotel being new, was very clean, modern, with comfy beds. Although the sheets felt a bit worn already, rough feeling, but other than that, a perfect stay. Had breakfast one morning in the hotel restaurant, which was good. The bar didn't have a wine that I had chosen on the menu one evening, they only had the cheaper selections, but other than that, it was a fine stay, which I would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived to a very large and bright new hotel. My mother being in a wheelchair, we booked an accessible room, which was very large and well equipped for a wheelchair. The front desk staff were extremely helpful upon our arrival to make sure we were given the right room for my mother's needs. The hotel being new, was very clean, modern, with comfy beds. Although the sheets felt a bit worn already, rough feeling, but other than that, a perfect stay. Had breakfast one morning in the hotel restaurant, which was good. The bar didn't have a wine that I had chosen on the menu one evening, they only had the cheaper selections, but other than that, it was a fine stay, which I would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r528604507-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>528604507</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Nice new hotel!  Friendly service!</t>
+  </si>
+  <si>
+    <t>This is a beautiful, new hotel.  The room was lovely and very clean.  Nice size television (which made my husband happy).  The bed was very comfortable.  The front desk staff was super friendly and helpful!  I will definitely stay here again in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r517841190-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>517841190</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Very new, has a few bugs to work out</t>
+  </si>
+  <si>
+    <t>I don't mean literal bugs, the property was extremely clean.  My door would not lock. The shower door had a large gap like the wall was not square (perhaps why the door did not lock?)  Had some plumbing issues as well.Had to change rooms and the staff immediately mad the situation right and were very polite.  Then my wake up call (a back up for my other alarms) never came.  Not good for business travelers especially since the clock was off.I would give a try on another trip and hopefully they will be up and running by then.  Not much within walking distance.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r514027015-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>514027015</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>New Orleans, Mississippi, Navarre Beach, FL Family Vacation</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel last week to wrap up our Southern Vacation. Kevin at the front desk did a great job making sure our airport shuttle was available at 4am and also the prior day to return our rental car. The 2 ladies driving were also friendly and efficient. Jeremy, our waiter in their on site restaurant, was very friendly and entertaining for the kids. The food was all warm and good. They have their own amazing potato chips. The pool was great for relaxing our last night before flying back to PA. It had a cool, lighted waterfall wall. The hotel only opened in June so it is very nice, clean, and safe. We would definitely stay here again! It is very convenient for the airport. No need to stay anywhere else in Kenner. The staff was very welcoming that we felt like family! Well done Kenner Holiday Inn staff! You have friends in PA! MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel last week to wrap up our Southern Vacation. Kevin at the front desk did a great job making sure our airport shuttle was available at 4am and also the prior day to return our rental car. The 2 ladies driving were also friendly and efficient. Jeremy, our waiter in their on site restaurant, was very friendly and entertaining for the kids. The food was all warm and good. They have their own amazing potato chips. The pool was great for relaxing our last night before flying back to PA. It had a cool, lighted waterfall wall. The hotel only opened in June so it is very nice, clean, and safe. We would definitely stay here again! It is very convenient for the airport. No need to stay anywhere else in Kenner. The staff was very welcoming that we felt like family! Well done Kenner Holiday Inn staff! You have friends in PA! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r514002604-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>514002604</t>
+  </si>
+  <si>
+    <t>I really do like this hotel this is the only place I will stay when in this area</t>
+  </si>
+  <si>
+    <t>Our stay was pleasant; room and bathroom were clean and neat with plenty of towels and hot water til the end on check out. Bed was very comfortable. Nice breakfast presentation and selection even with missing it. The staff was friendly, courteous, and helpful that would include Kevin check us in. One of my complaint is the I could not even really hear the noise of the planes taking off. We would certainly stay again and highly recommend Holiday Inn New Orleans Airport North. I did not have water to shower with on the day of check out and front desk and head housekeeping said No one told you the water would be off this was just wrong.  Over all this was just wrong I  can really say that Kevin rocked when I check in to the hotel and because of him I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Our stay was pleasant; room and bathroom were clean and neat with plenty of towels and hot water til the end on check out. Bed was very comfortable. Nice breakfast presentation and selection even with missing it. The staff was friendly, courteous, and helpful that would include Kevin check us in. One of my complaint is the I could not even really hear the noise of the planes taking off. We would certainly stay again and highly recommend Holiday Inn New Orleans Airport North. I did not have water to shower with on the day of check out and front desk and head housekeeping said No one told you the water would be off this was just wrong.  Over all this was just wrong I  can really say that Kevin rocked when I check in to the hotel and because of him I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r513491223-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>513491223</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Hotel is only 3-4 months old. Very clean. Friendly staff at front desk and housekeeping is also great. Parking is easy and also free. Free Wifi also. My hotel of choice when working in Kenner. A/C works great and sufficient TV channels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r503689158-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>503689158</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel just opened a month ago</t>
+  </si>
+  <si>
+    <t>Nice hotel, they just opened a month ago so there are a few bugs to be worked out but, the staff is getting there. The rooms are nice they have USB ports everywhere big +. Beds are great very comfortable. Really I just have two small complaints first, the toilet paper holder is a mile away from the toilet. You can't hardly Reach it. We had to take it off of the holder and set it on the back of the toilet.The other thing is they have a bar but they don't/can't have any beer yet, just hard liquor and wine. Also they can't process credit cards for the bar or restaurant you have to go to the front desk to pay. I'm sure these will be resolved soon but it was odd that as many hotels as Holliday opens this is still not taken care of already. But really those are minor complaints the hotels great and I would definitely stay again next time I come to town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, they just opened a month ago so there are a few bugs to be worked out but, the staff is getting there. The rooms are nice they have USB ports everywhere big +. Beds are great very comfortable. Really I just have two small complaints first, the toilet paper holder is a mile away from the toilet. You can't hardly Reach it. We had to take it off of the holder and set it on the back of the toilet.The other thing is they have a bar but they don't/can't have any beer yet, just hard liquor and wine. Also they can't process credit cards for the bar or restaurant you have to go to the front desk to pay. I'm sure these will be resolved soon but it was odd that as many hotels as Holliday opens this is still not taken care of already. But really those are minor complaints the hotels great and I would definitely stay again next time I come to town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r501702935-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>501702935</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn Airport</t>
+  </si>
+  <si>
+    <t>We had a long day of travel having gone to Houston for the day from the French Quarter of New Orleans. So we wanted a good, clean hotel near the airport for an early flight home.  We stopped here and it was wonderful. The rooms were very clean, perfectly appointed and even the beds were all brand new. We slept like babies after the long day and it was heaven. Nice to check in and find a nice facility available checking in late. There was a security guard on duty and we felt very safe and secure late in the evening.  Such a relief to find this haven and be able to enjoy the creature comforts we found here. Front desk staff was very friendly and inviting coming and going. Highly recommend this hotel if you need to stay by airport in New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>We had a long day of travel having gone to Houston for the day from the French Quarter of New Orleans. So we wanted a good, clean hotel near the airport for an early flight home.  We stopped here and it was wonderful. The rooms were very clean, perfectly appointed and even the beds were all brand new. We slept like babies after the long day and it was heaven. Nice to check in and find a nice facility available checking in late. There was a security guard on duty and we felt very safe and secure late in the evening.  Such a relief to find this haven and be able to enjoy the creature comforts we found here. Front desk staff was very friendly and inviting coming and going. Highly recommend this hotel if you need to stay by airport in New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r499784371-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>499784371</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Essence Festival Visit</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel July 4th weekend during the Essence Festival. I booked this hotel because it was affordable &amp; included a fridge &amp; microwave. It's a new hotel, clean, free parking &amp; the location is great. We had a small plumbing issues, but once speaking with the General Manager of the Hotel the issue was addressed &amp; resolved quickly.I would stay at this Holiday Inn location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel July 4th weekend during the Essence Festival. I booked this hotel because it was affordable &amp; included a fridge &amp; microwave. It's a new hotel, clean, free parking &amp; the location is great. We had a small plumbing issues, but once speaking with the General Manager of the Hotel the issue was addressed &amp; resolved quickly.I would stay at this Holiday Inn location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40247-d11717411-r492695063-Holiday_Inn_New_Orleans_Airport_North-Kenner_Louisiana.html</t>
+  </si>
+  <si>
+    <t>492695063</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel with my family while visiting New Orleans.  The hotel is in an ideal location with easy access near Interstate 10 and the airport.  The drive to Jackson Square from the hotel is simple and fast.  The beds in this hotel are fantastic, exceptionally comfortable.  The staff is very friendly making this stay like a visit with family.  I highly recommend this hotel.  I would also like to mention that I felt very safe in the hotel.  It's in a nice location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel with my family while visiting New Orleans.  The hotel is in an ideal location with easy access near Interstate 10 and the airport.  The drive to Jackson Square from the hotel is simple and fast.  The beds in this hotel are fantastic, exceptionally comfortable.  The staff is very friendly making this stay like a visit with family.  I highly recommend this hotel.  I would also like to mention that I felt very safe in the hotel.  It's in a nice location.More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -555,6 +1339,2463 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>87</v>
+      </c>
+      <c r="X10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>100</v>
+      </c>
+      <c r="X12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>125</v>
+      </c>
+      <c r="X16" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>87</v>
+      </c>
+      <c r="X17" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="J18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" t="s">
+        <v>137</v>
+      </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>87</v>
+      </c>
+      <c r="X19" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s">
+        <v>158</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>145</v>
+      </c>
+      <c r="O22" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" t="s">
+        <v>168</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>145</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>145</v>
+      </c>
+      <c r="O24" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" t="s">
+        <v>180</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>145</v>
+      </c>
+      <c r="O25" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" t="s">
+        <v>185</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>186</v>
+      </c>
+      <c r="O26" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>145</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>186</v>
+      </c>
+      <c r="O28" t="s">
+        <v>198</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>186</v>
+      </c>
+      <c r="O29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>186</v>
+      </c>
+      <c r="O30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>210</v>
+      </c>
+      <c r="J31" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" t="s">
+        <v>212</v>
+      </c>
+      <c r="L31" t="s">
+        <v>213</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>186</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>215</v>
+      </c>
+      <c r="J32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" t="s">
+        <v>218</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>219</v>
+      </c>
+      <c r="O32" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>219</v>
+      </c>
+      <c r="O33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" t="s">
+        <v>231</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>186</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>233</v>
+      </c>
+      <c r="J35" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" t="s">
+        <v>235</v>
+      </c>
+      <c r="L35" t="s">
+        <v>236</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>237</v>
+      </c>
+      <c r="O35" t="s">
+        <v>41</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" t="s">
+        <v>242</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>237</v>
+      </c>
+      <c r="O36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" t="s">
+        <v>240</v>
+      </c>
+      <c r="K37" t="s">
+        <v>246</v>
+      </c>
+      <c r="L37" t="s">
+        <v>247</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>248</v>
+      </c>
+      <c r="O37" t="s">
+        <v>58</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" t="s">
+        <v>252</v>
+      </c>
+      <c r="K38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" t="s">
+        <v>253</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>237</v>
+      </c>
+      <c r="O38" t="s">
+        <v>41</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" t="s">
+        <v>257</v>
+      </c>
+      <c r="L39" t="s">
+        <v>258</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>248</v>
+      </c>
+      <c r="O39" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>259</v>
+      </c>
+      <c r="X39" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>263</v>
+      </c>
+      <c r="J40" t="s">
+        <v>264</v>
+      </c>
+      <c r="K40" t="s">
+        <v>265</v>
+      </c>
+      <c r="L40" t="s">
+        <v>266</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>248</v>
+      </c>
+      <c r="O40" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>267</v>
+      </c>
+      <c r="X40" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>270</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>271</v>
+      </c>
+      <c r="J41" t="s">
+        <v>272</v>
+      </c>
+      <c r="K41" t="s">
+        <v>273</v>
+      </c>
+      <c r="L41" t="s">
+        <v>274</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>248</v>
+      </c>
+      <c r="O41" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>259</v>
+      </c>
+      <c r="X41" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64956</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>276</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>277</v>
+      </c>
+      <c r="J42" t="s">
+        <v>278</v>
+      </c>
+      <c r="K42" t="s">
+        <v>279</v>
+      </c>
+      <c r="L42" t="s">
+        <v>280</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>281</v>
+      </c>
+      <c r="O42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>259</v>
+      </c>
+      <c r="X42" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -577,31 +3818,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>290</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
@@ -609,31 +3850,31 @@
         <v>64956</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>294</v>
       </c>
       <c r="E2" t="n">
         <v>70062</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
